--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T22:08:29+00:00</t>
+    <t>2021-11-18T12:27:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-18T12:27:31+00:00</t>
+    <t>2021-11-24T13:32:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T13:32:15+00:00</t>
+    <t>2021-11-25T06:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T06:07:33+00:00</t>
+    <t>2021-11-25T07:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T07:05:56+00:00</t>
+    <t>2021-11-25T08:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T08:52:25+00:00</t>
+    <t>2021-11-25T21:16:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T21:16:57+00:00</t>
+    <t>2021-12-15T08:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T08:30:53+00:00</t>
+    <t>2021-12-15T12:34:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T12:34:15+00:00</t>
+    <t>2021-12-15T12:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T12:39:33+00:00</t>
+    <t>2021-12-15T13:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T13:42:09+00:00</t>
+    <t>2021-12-16T21:16:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T21:16:53+00:00</t>
+    <t>2021-12-17T09:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:07:58+00:00</t>
+    <t>2021-12-17T09:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:19:31+00:00</t>
+    <t>2021-12-17T12:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T12:06:07+00:00</t>
+    <t>2022-01-10T12:40:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T12:40:13+00:00</t>
+    <t>2022-01-11T09:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T09:12:02+00:00</t>
+    <t>2022-01-17T12:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T12:49:07+00:00</t>
+    <t>2022-02-09T19:12:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-09T19:12:46+00:00</t>
+    <t>2022-02-16T10:05:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T10:05:43+00:00</t>
+    <t>2023-04-28T21:16:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T21:16:27+00:00</t>
+    <t>2024-05-29T11:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -593,10 +593,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T11:15:19+00:00</t>
+    <t>2024-05-29T11:27:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T11:27:53+00:00</t>
+    <t>2024-05-29T11:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T11:39:51+00:00</t>
+    <t>2025-03-27T21:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-27T21:37:45+00:00</t>
+    <t>2025-10-16T20:19:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T20:19:25+00:00</t>
+    <t>2025-10-16T20:37:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T20:37:15+00:00</t>
+    <t>2025-10-17T19:50:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T19:50:01+00:00</t>
+    <t>2025-10-17T19:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T19:53:44+00:00</t>
+    <t>2025-10-17T20:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T20:15:52+00:00</t>
+    <t>2025-10-17T20:41:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T20:41:05+00:00</t>
+    <t>2025-10-17T20:48:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T20:48:12+00:00</t>
+    <t>2025-10-31T06:29:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
